--- a/documents/進捗管理.xlsx
+++ b/documents/進捗管理.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\idstaff\1.制作\1.WEBサイト&amp;プロジェクト\Rebros\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A5547D-8D4F-41D8-A1B5-F2A3926B877A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4D51CC5-DA09-48FC-B4DA-9C746EE49F18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="654" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="208">
   <si>
     <t>ページ名</t>
     <rPh sb="3" eb="4">
@@ -1158,10 +1158,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/service/</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>/contact/</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1192,117 +1188,109 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お問合せ -確認-</t>
-    <rPh sb="6" eb="8">
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>page-details.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>page-price.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>page-flow.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>page-about.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>page-faq.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>contact.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>single.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>archive.php</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D1_faq.psd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E1_contact.psd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F1_blog_archive.psd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F2blog_article.psd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B2_details.psd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B3_price.psd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B4_flow.psd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C1_about.psd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> お問合せ -確認-</t>
+    <rPh sb="7" eb="9">
       <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お問合せ -送信エラー-</t>
-    <rPh sb="6" eb="8">
+    <t xml:space="preserve"> お問合せ -送信エラー-</t>
+    <rPh sb="7" eb="9">
       <t>ソウシン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>お問合せ -送信完了-</t>
-    <rPh sb="6" eb="8">
+    <t xml:space="preserve"> お問合せ -送信完了-</t>
+    <rPh sb="7" eb="9">
       <t>ソウシン</t>
     </rPh>
-    <rPh sb="8" eb="10">
+    <rPh sb="9" eb="11">
       <t>カンリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>page-service.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>page-details.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>page-price.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>page-flow.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>page-about.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>page-faq.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>contact.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>single.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>archive.php</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B1_service.psd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D1_faq.psd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E1_contact.psd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F1_blog_archive.psd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F2blog_article.psd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B2_details.psd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B3_price.psd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B4_flow.psd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C1_about.psd</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3427,49 +3415,49 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5331,7 +5319,7 @@
   <dimension ref="A1:T56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -5543,15 +5531,9 @@
       <c r="B6" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>199</v>
-      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="22"/>
       <c r="F6" s="109"/>
       <c r="G6" s="56"/>
       <c r="H6" s="53"/>
@@ -5570,19 +5552,19 @@
     </row>
     <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="67" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>173</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F7" s="109"/>
       <c r="G7" s="56"/>
@@ -5602,19 +5584,19 @@
     </row>
     <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="67" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B8" s="24" t="s">
         <v>170</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="F8" s="109"/>
       <c r="G8" s="56"/>
@@ -5634,19 +5616,19 @@
     </row>
     <row r="9" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="67" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>171</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F9" s="109"/>
       <c r="G9" s="56"/>
@@ -5675,10 +5657,10 @@
         <v>172</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F10" s="109"/>
       <c r="G10" s="56"/>
@@ -5707,10 +5689,10 @@
         <v>175</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F11" s="109"/>
       <c r="G11" s="56"/>
@@ -5733,16 +5715,16 @@
         <v>132</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F12" s="109"/>
       <c r="G12" s="56"/>
@@ -5765,7 +5747,7 @@
         <v>149</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>148</v>
@@ -5794,10 +5776,10 @@
     </row>
     <row r="14" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="67" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>148</v>
@@ -5826,10 +5808,10 @@
     </row>
     <row r="15" spans="1:20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="67" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>148</v>
@@ -5867,10 +5849,10 @@
         <v>176</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="F16" s="109"/>
       <c r="G16" s="56"/>
@@ -5896,13 +5878,13 @@
         <v>177</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D17" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E17" s="22" t="s">
         <v>197</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>203</v>
       </c>
       <c r="F17" s="109"/>
       <c r="G17" s="57"/>
@@ -10646,7 +10628,7 @@
       <c r="A6" s="198" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="222" t="s">
+      <c r="B6" s="223" t="s">
         <v>60</v>
       </c>
       <c r="C6" s="201" t="s">
@@ -10655,7 +10637,7 @@
       <c r="D6" s="198" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="225" t="s">
+      <c r="E6" s="226" t="s">
         <v>103</v>
       </c>
       <c r="F6" s="198" t="s">
@@ -10946,14 +10928,14 @@
       <c r="CW6" s="6"/>
     </row>
     <row r="7" spans="1:256" s="99" customFormat="1" ht="43.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="221"/>
-      <c r="B7" s="223"/>
-      <c r="C7" s="224"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="221"/>
+      <c r="A7" s="222"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
       <c r="I7" s="137"/>
       <c r="J7" s="98"/>
       <c r="K7" s="98"/>
@@ -11206,10 +11188,10 @@
       <c r="IV7" s="49"/>
     </row>
     <row r="8" spans="1:256" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="219" t="s">
         <v>111</v>
       </c>
-      <c r="B8" s="226" t="s">
+      <c r="B8" s="217" t="s">
         <v>151</v>
       </c>
       <c r="C8" s="41" t="s">
@@ -11315,8 +11297,8 @@
       <c r="CW8" s="186"/>
     </row>
     <row r="9" spans="1:256" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="229"/>
-      <c r="B9" s="227"/>
+      <c r="A9" s="220"/>
+      <c r="B9" s="218"/>
       <c r="C9" s="41" t="s">
         <v>152</v>
       </c>
@@ -11578,7 +11560,7 @@
       <c r="A10" s="216" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="217" t="s">
+      <c r="B10" s="229" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -11684,8 +11666,8 @@
       <c r="CW10" s="6"/>
     </row>
     <row r="11" spans="1:256" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="230"/>
-      <c r="B11" s="218"/>
+      <c r="A11" s="221"/>
+      <c r="B11" s="230"/>
       <c r="C11" s="42" t="s">
         <v>66</v>
       </c>
@@ -11789,8 +11771,8 @@
       <c r="CW11" s="6"/>
     </row>
     <row r="12" spans="1:256" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="230"/>
-      <c r="B12" s="218"/>
+      <c r="A12" s="221"/>
+      <c r="B12" s="230"/>
       <c r="C12" s="42" t="s">
         <v>67</v>
       </c>
@@ -11894,8 +11876,8 @@
       <c r="CW12" s="6"/>
     </row>
     <row r="13" spans="1:256" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="230"/>
-      <c r="B13" s="218"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="230"/>
       <c r="C13" s="42" t="s">
         <v>68</v>
       </c>
@@ -11999,8 +11981,8 @@
       <c r="CW13" s="6"/>
     </row>
     <row r="14" spans="1:256" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="230"/>
-      <c r="B14" s="218"/>
+      <c r="A14" s="221"/>
+      <c r="B14" s="230"/>
       <c r="C14" s="42" t="s">
         <v>69</v>
       </c>
@@ -12104,10 +12086,10 @@
       <c r="CW14" s="6"/>
     </row>
     <row r="15" spans="1:256" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="231" t="s">
+      <c r="A15" s="227" t="s">
         <v>112</v>
       </c>
-      <c r="B15" s="217" t="s">
+      <c r="B15" s="229" t="s">
         <v>64</v>
       </c>
       <c r="C15" s="42" t="s">
@@ -12213,8 +12195,8 @@
       <c r="CW15" s="6"/>
     </row>
     <row r="16" spans="1:256" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="219"/>
-      <c r="B16" s="218"/>
+      <c r="A16" s="228"/>
+      <c r="B16" s="230"/>
       <c r="C16" s="129" t="s">
         <v>154</v>
       </c>
@@ -12318,8 +12300,8 @@
       <c r="CW16" s="6"/>
     </row>
     <row r="17" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="219"/>
-      <c r="B17" s="218"/>
+      <c r="A17" s="228"/>
+      <c r="B17" s="230"/>
       <c r="C17" s="129" t="s">
         <v>147</v>
       </c>
@@ -12423,8 +12405,8 @@
       <c r="CW17" s="6"/>
     </row>
     <row r="18" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="219"/>
-      <c r="B18" s="218"/>
+      <c r="A18" s="228"/>
+      <c r="B18" s="230"/>
       <c r="C18" s="126" t="s">
         <v>160</v>
       </c>
@@ -12528,8 +12510,8 @@
       <c r="CW18" s="6"/>
     </row>
     <row r="19" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="219"/>
-      <c r="B19" s="217" t="s">
+      <c r="A19" s="228"/>
+      <c r="B19" s="229" t="s">
         <v>113</v>
       </c>
       <c r="C19" s="127" t="s">
@@ -12635,8 +12617,8 @@
       <c r="CW19" s="6"/>
     </row>
     <row r="20" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="219"/>
-      <c r="B20" s="218"/>
+      <c r="A20" s="228"/>
+      <c r="B20" s="230"/>
       <c r="C20" s="126" t="s">
         <v>138</v>
       </c>
@@ -12740,7 +12722,7 @@
       <c r="CW20" s="6"/>
     </row>
     <row r="21" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="219"/>
+      <c r="A21" s="228"/>
       <c r="B21" s="66" t="s">
         <v>158</v>
       </c>
@@ -12845,7 +12827,7 @@
       <c r="CW21" s="6"/>
     </row>
     <row r="22" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="219"/>
+      <c r="A22" s="228"/>
       <c r="B22" s="112" t="s">
         <v>155</v>
       </c>
@@ -12950,7 +12932,7 @@
       <c r="CW22" s="6"/>
     </row>
     <row r="23" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="219"/>
+      <c r="A23" s="228"/>
       <c r="B23" s="66" t="s">
         <v>102</v>
       </c>
@@ -13055,7 +13037,7 @@
       <c r="CW23" s="6"/>
     </row>
     <row r="24" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="219"/>
+      <c r="A24" s="228"/>
       <c r="B24" s="43"/>
       <c r="C24" s="42"/>
       <c r="D24" s="3"/>
@@ -13158,7 +13140,7 @@
       <c r="CW24" s="6"/>
     </row>
     <row r="25" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="219"/>
+      <c r="A25" s="228"/>
       <c r="B25" s="43"/>
       <c r="C25" s="42"/>
       <c r="D25" s="3"/>
@@ -13261,7 +13243,7 @@
       <c r="CW25" s="6"/>
     </row>
     <row r="26" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="219"/>
+      <c r="A26" s="228"/>
       <c r="B26" s="43"/>
       <c r="C26" s="42"/>
       <c r="D26" s="3"/>
@@ -13364,7 +13346,7 @@
       <c r="CW26" s="6"/>
     </row>
     <row r="27" spans="1:101" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="220"/>
+      <c r="A27" s="231"/>
       <c r="B27" s="43"/>
       <c r="C27" s="42"/>
       <c r="D27" s="3"/>
@@ -13520,6 +13502,9 @@
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="B10:B14"/>
     <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A14"/>
     <mergeCell ref="A5:H5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
@@ -13529,9 +13514,6 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.5" footer="0.5"/>
